--- a/Project/李雨竹/第二阶段/冒烟测试用例.xlsx
+++ b/Project/李雨竹/第二阶段/冒烟测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
   <si>
     <t>后台“工具”模块</t>
   </si>
@@ -274,13 +274,10 @@
     <t>邮件-邮件服务器设置</t>
   </si>
   <si>
-    <t xml:space="preserve">1.登陆后台管理 2.点击工具 3.点击“邮件”4.点击“邮件服务器设置”5.设置邮件参数 6.点击“保存”7.点击“取消”8.点击“测试”9.输入测试邮箱 </t>
-  </si>
-  <si>
-    <t>服务器设置成功，email发送成功</t>
-  </si>
-  <si>
-    <t>服务器设置成功，email发送失败</t>
+    <t>1.登陆后台管理 2.点击工具 3.点击“邮件”4.点击“邮件服务器设置”5.设置邮件参数 6.点击“保存”</t>
+  </si>
+  <si>
+    <t>服务器设置成功</t>
   </si>
   <si>
     <t>邮件-邮件模板设置</t>
@@ -502,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -538,33 +535,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,76 +563,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +585,90 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -682,19 +679,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,19 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,121 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,17 +873,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,28 +926,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,26 +962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +988,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,7 +1472,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1973,7 +1970,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="28" spans="1:6">
+    <row r="28" s="3" customFormat="1" ht="32" customHeight="1" spans="1:6">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -1996,16 +1993,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="9"/>
     </row>
@@ -2014,10 +2011,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>46</v>
@@ -2032,16 +2029,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:6">
@@ -2049,22 +2046,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2077,16 +2074,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34" s="5"/>
     </row>
@@ -2095,16 +2092,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="5"/>
     </row>
@@ -2113,16 +2110,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -2131,16 +2128,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -2149,16 +2146,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -2167,16 +2164,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -2185,16 +2182,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -2203,16 +2200,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -2221,16 +2218,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="5"/>
     </row>
@@ -2239,16 +2236,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43"/>
@@ -2258,16 +2255,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="5"/>
     </row>
@@ -2276,16 +2273,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -2294,16 +2291,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="5"/>
     </row>
@@ -2312,16 +2309,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" s="5"/>
     </row>
@@ -2330,16 +2327,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="E48" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="5"/>
     </row>
@@ -2348,16 +2345,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -2366,16 +2363,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="E50" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -2384,16 +2381,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51"/>
@@ -2403,16 +2400,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F52" s="5"/>
     </row>
@@ -2421,16 +2418,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53"/>
